--- a/Transformer/result/wlp_transformer/daqingyoutian_result_DEN.xlsx
+++ b/Transformer/result/wlp_transformer/daqingyoutian_result_DEN.xlsx
@@ -458,7 +458,7 @@
         <v>2.263</v>
       </c>
       <c r="C2" t="n">
-        <v>2.269070863723755</v>
+        <v>2.235973119735718</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>2.256</v>
       </c>
       <c r="C3" t="n">
-        <v>2.25680685043335</v>
+        <v>2.225358486175537</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>2.253</v>
       </c>
       <c r="C4" t="n">
-        <v>2.256577491760254</v>
+        <v>2.217073917388916</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>2.26</v>
       </c>
       <c r="C5" t="n">
-        <v>2.258293151855469</v>
+        <v>2.21567177772522</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>2.271</v>
       </c>
       <c r="C6" t="n">
-        <v>2.266395092010498</v>
+        <v>2.225725889205933</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>2.268</v>
       </c>
       <c r="C7" t="n">
-        <v>2.268335819244385</v>
+        <v>2.203718662261963</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>2.259</v>
       </c>
       <c r="C8" t="n">
-        <v>2.254830360412598</v>
+        <v>2.199678182601929</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>2.235</v>
       </c>
       <c r="C9" t="n">
-        <v>2.24182915687561</v>
+        <v>2.193950176239014</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>2.21</v>
       </c>
       <c r="C10" t="n">
-        <v>2.21097731590271</v>
+        <v>2.18493390083313</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>2.178</v>
       </c>
       <c r="C11" t="n">
-        <v>2.193013906478882</v>
+        <v>2.180206537246704</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>2.142</v>
       </c>
       <c r="C12" t="n">
-        <v>2.153686285018921</v>
+        <v>2.17021918296814</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>2.108</v>
       </c>
       <c r="C13" t="n">
-        <v>2.102932214736938</v>
+        <v>2.170031785964966</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>2.086</v>
       </c>
       <c r="C14" t="n">
-        <v>2.066935062408447</v>
+        <v>2.137101888656616</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>2.072</v>
       </c>
       <c r="C15" t="n">
-        <v>2.037277936935425</v>
+        <v>2.130560636520386</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>2.07</v>
       </c>
       <c r="C16" t="n">
-        <v>2.034796476364136</v>
+        <v>2.099250078201294</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>2.065</v>
       </c>
       <c r="C17" t="n">
-        <v>2.049556970596313</v>
+        <v>2.076583862304688</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>2.06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.067506313323975</v>
+        <v>2.078253984451294</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>2.058</v>
       </c>
       <c r="C19" t="n">
-        <v>2.087178707122803</v>
+        <v>2.061531066894531</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>2.063</v>
       </c>
       <c r="C20" t="n">
-        <v>2.092893600463867</v>
+        <v>2.058552265167236</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>2.078</v>
       </c>
       <c r="C21" t="n">
-        <v>2.100008964538574</v>
+        <v>2.05899977684021</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>2.096</v>
       </c>
       <c r="C22" t="n">
-        <v>2.112856388092041</v>
+        <v>2.063053607940674</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>2.106</v>
       </c>
       <c r="C23" t="n">
-        <v>2.122971534729004</v>
+        <v>2.08736777305603</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>2.11</v>
       </c>
       <c r="C24" t="n">
-        <v>2.128713846206665</v>
+        <v>2.090776205062866</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>2.105</v>
       </c>
       <c r="C25" t="n">
-        <v>2.126787185668945</v>
+        <v>2.095561504364014</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>2.095</v>
       </c>
       <c r="C26" t="n">
-        <v>2.129166841506958</v>
+        <v>2.1127769947052</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>2.094</v>
       </c>
       <c r="C27" t="n">
-        <v>2.128514051437378</v>
+        <v>2.127506971359253</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>2.099</v>
       </c>
       <c r="C28" t="n">
-        <v>2.126981258392334</v>
+        <v>2.12252402305603</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>2.107</v>
       </c>
       <c r="C29" t="n">
-        <v>2.129160642623901</v>
+        <v>2.134658098220825</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>2.113</v>
       </c>
       <c r="C30" t="n">
-        <v>2.128333806991577</v>
+        <v>2.138028144836426</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>2.108</v>
       </c>
       <c r="C31" t="n">
-        <v>2.133835554122925</v>
+        <v>2.143382787704468</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>2.106</v>
       </c>
       <c r="C32" t="n">
-        <v>2.144395351409912</v>
+        <v>2.150741815567017</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>2.111</v>
       </c>
       <c r="C33" t="n">
-        <v>2.157320261001587</v>
+        <v>2.167396306991577</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>2.136</v>
       </c>
       <c r="C34" t="n">
-        <v>2.180527925491333</v>
+        <v>2.176279783248901</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>2.174</v>
       </c>
       <c r="C35" t="n">
-        <v>2.204621553421021</v>
+        <v>2.193398475646973</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>2.216</v>
       </c>
       <c r="C36" t="n">
-        <v>2.226203680038452</v>
+        <v>2.214786052703857</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>2.253</v>
       </c>
       <c r="C37" t="n">
-        <v>2.247251272201538</v>
+        <v>2.226131916046143</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>2.273</v>
       </c>
       <c r="C38" t="n">
-        <v>2.259128332138062</v>
+        <v>2.23572301864624</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>2.272</v>
       </c>
       <c r="C39" t="n">
-        <v>2.274359941482544</v>
+        <v>2.234329700469971</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>2.263</v>
       </c>
       <c r="C40" t="n">
-        <v>2.271333456039429</v>
+        <v>2.237282037734985</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>2.241</v>
       </c>
       <c r="C41" t="n">
-        <v>2.261428356170654</v>
+        <v>2.246788024902344</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>2.233</v>
       </c>
       <c r="C42" t="n">
-        <v>2.247795343399048</v>
+        <v>2.251144647598267</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>2.225</v>
       </c>
       <c r="C43" t="n">
-        <v>2.239691734313965</v>
+        <v>2.24870777130127</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>2.226</v>
       </c>
       <c r="C44" t="n">
-        <v>2.234501600265503</v>
+        <v>2.253583431243896</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>2.223</v>
       </c>
       <c r="C45" t="n">
-        <v>2.226211071014404</v>
+        <v>2.248988151550293</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>2.225</v>
       </c>
       <c r="C46" t="n">
-        <v>2.233850955963135</v>
+        <v>2.236026048660278</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>2.226</v>
       </c>
       <c r="C47" t="n">
-        <v>2.231859922409058</v>
+        <v>2.230730772018433</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>2.233</v>
       </c>
       <c r="C48" t="n">
-        <v>2.234542608261108</v>
+        <v>2.226444721221924</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>2.236</v>
       </c>
       <c r="C49" t="n">
-        <v>2.236129760742188</v>
+        <v>2.226482391357422</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>2.237</v>
       </c>
       <c r="C50" t="n">
-        <v>2.231429576873779</v>
+        <v>2.223435878753662</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>2.236</v>
       </c>
       <c r="C51" t="n">
-        <v>2.222748994827271</v>
+        <v>2.214916706085205</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>2.23</v>
       </c>
       <c r="C52" t="n">
-        <v>2.209852933883667</v>
+        <v>2.198919057846069</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>2.218</v>
       </c>
       <c r="C53" t="n">
-        <v>2.200746059417725</v>
+        <v>2.199433088302612</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>2.196</v>
       </c>
       <c r="C54" t="n">
-        <v>2.193744897842407</v>
+        <v>2.186074495315552</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>2.176</v>
       </c>
       <c r="C55" t="n">
-        <v>2.172794342041016</v>
+        <v>2.192376136779785</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>2.158</v>
       </c>
       <c r="C56" t="n">
-        <v>2.16627311706543</v>
+        <v>2.198887825012207</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>2.158</v>
       </c>
       <c r="C57" t="n">
-        <v>2.16069507598877</v>
+        <v>2.191281795501709</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>2.165</v>
       </c>
       <c r="C58" t="n">
-        <v>2.167981147766113</v>
+        <v>2.203069686889648</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>2.178</v>
       </c>
       <c r="C59" t="n">
-        <v>2.175670385360718</v>
+        <v>2.201683759689331</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>2.192</v>
       </c>
       <c r="C60" t="n">
-        <v>2.183184623718262</v>
+        <v>2.222208023071289</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>2.195</v>
       </c>
       <c r="C61" t="n">
-        <v>2.189281225204468</v>
+        <v>2.219943523406982</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>2.203</v>
       </c>
       <c r="C62" t="n">
-        <v>2.197883367538452</v>
+        <v>2.240786790847778</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>2.204</v>
       </c>
       <c r="C63" t="n">
-        <v>2.197865009307861</v>
+        <v>2.240683555603027</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>2.21</v>
       </c>
       <c r="C64" t="n">
-        <v>2.216938734054565</v>
+        <v>2.245918273925781</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>2.221</v>
       </c>
       <c r="C65" t="n">
-        <v>2.220833301544189</v>
+        <v>2.241988182067871</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>2.231</v>
       </c>
       <c r="C66" t="n">
-        <v>2.227093696594238</v>
+        <v>2.243072032928467</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>2.239</v>
       </c>
       <c r="C67" t="n">
-        <v>2.244378566741943</v>
+        <v>2.244548320770264</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>2.234</v>
       </c>
       <c r="C68" t="n">
-        <v>2.238740205764771</v>
+        <v>2.226712226867676</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>2.226</v>
       </c>
       <c r="C69" t="n">
-        <v>2.234602451324463</v>
+        <v>2.23276424407959</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>2.214</v>
       </c>
       <c r="C70" t="n">
-        <v>2.218149662017822</v>
+        <v>2.233559131622314</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>2.211</v>
       </c>
       <c r="C71" t="n">
-        <v>2.203857898712158</v>
+        <v>2.21246075630188</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>2.219</v>
       </c>
       <c r="C72" t="n">
-        <v>2.204998731613159</v>
+        <v>2.233322143554688</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>2.226</v>
       </c>
       <c r="C73" t="n">
-        <v>2.207982540130615</v>
+        <v>2.232082366943359</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>2.231</v>
       </c>
       <c r="C74" t="n">
-        <v>2.21719217300415</v>
+        <v>2.242352485656738</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>2.213</v>
       </c>
       <c r="C75" t="n">
-        <v>2.206001281738281</v>
+        <v>2.245868682861328</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>2.193</v>
       </c>
       <c r="C76" t="n">
-        <v>2.215652704238892</v>
+        <v>2.246858358383179</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>2.18</v>
       </c>
       <c r="C77" t="n">
-        <v>2.219260931015015</v>
+        <v>2.241538286209106</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>2.191</v>
       </c>
       <c r="C78" t="n">
-        <v>2.224506855010986</v>
+        <v>2.2520432472229</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>2.22</v>
       </c>
       <c r="C79" t="n">
-        <v>2.236269235610962</v>
+        <v>2.247810363769531</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>2.251</v>
       </c>
       <c r="C80" t="n">
-        <v>2.265794038772583</v>
+        <v>2.239056348800659</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>2.277</v>
       </c>
       <c r="C81" t="n">
-        <v>2.27213716506958</v>
+        <v>2.248169660568237</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>2.293</v>
       </c>
       <c r="C82" t="n">
-        <v>2.300476551055908</v>
+        <v>2.245679616928101</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>2.305</v>
       </c>
       <c r="C83" t="n">
-        <v>2.322724103927612</v>
+        <v>2.25513744354248</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>2.31</v>
       </c>
       <c r="C84" t="n">
-        <v>2.33409309387207</v>
+        <v>2.254247665405273</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>2.319</v>
       </c>
       <c r="C85" t="n">
-        <v>2.333157777786255</v>
+        <v>2.273917675018311</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>2.328</v>
       </c>
       <c r="C86" t="n">
-        <v>2.342703580856323</v>
+        <v>2.289445161819458</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>2.337</v>
       </c>
       <c r="C87" t="n">
-        <v>2.357824802398682</v>
+        <v>2.304420471191406</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>2.342</v>
       </c>
       <c r="C88" t="n">
-        <v>2.350678443908691</v>
+        <v>2.311072587966919</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>2.35</v>
       </c>
       <c r="C89" t="n">
-        <v>2.34759783744812</v>
+        <v>2.317144870758057</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>2.353</v>
       </c>
       <c r="C90" t="n">
-        <v>2.341907501220703</v>
+        <v>2.314868450164795</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>2.354</v>
       </c>
       <c r="C91" t="n">
-        <v>2.332657337188721</v>
+        <v>2.316240787506104</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>2.357</v>
       </c>
       <c r="C92" t="n">
-        <v>2.333797454833984</v>
+        <v>2.327079772949219</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>2.345</v>
       </c>
       <c r="C93" t="n">
-        <v>2.339270114898682</v>
+        <v>2.331598997116089</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>2.331</v>
       </c>
       <c r="C94" t="n">
-        <v>2.333107233047485</v>
+        <v>2.328418970108032</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>2.324</v>
       </c>
       <c r="C95" t="n">
-        <v>2.343576669692993</v>
+        <v>2.331890821456909</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>2.327</v>
       </c>
       <c r="C96" t="n">
-        <v>2.341529130935669</v>
+        <v>2.334366321563721</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>2.341</v>
       </c>
       <c r="C97" t="n">
-        <v>2.336406707763672</v>
+        <v>2.340861558914185</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>2.362</v>
       </c>
       <c r="C98" t="n">
-        <v>2.333488464355469</v>
+        <v>2.344453811645508</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>2.373</v>
       </c>
       <c r="C99" t="n">
-        <v>2.335921049118042</v>
+        <v>2.357438802719116</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>2.377</v>
       </c>
       <c r="C100" t="n">
-        <v>2.356698274612427</v>
+        <v>2.37775993347168</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>2.379</v>
       </c>
       <c r="C101" t="n">
-        <v>2.356620073318481</v>
+        <v>2.385039329528809</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>2.387</v>
       </c>
       <c r="C102" t="n">
-        <v>2.380821943283081</v>
+        <v>2.395052909851074</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>2.396</v>
       </c>
       <c r="C103" t="n">
-        <v>2.38215970993042</v>
+        <v>2.379736185073853</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>2.403</v>
       </c>
       <c r="C104" t="n">
-        <v>2.388501167297363</v>
+        <v>2.374183893203735</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>2.406</v>
       </c>
       <c r="C105" t="n">
-        <v>2.379002332687378</v>
+        <v>2.362556457519531</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>2.402</v>
       </c>
       <c r="C106" t="n">
-        <v>2.37505316734314</v>
+        <v>2.350712299346924</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>2.387</v>
       </c>
       <c r="C107" t="n">
-        <v>2.366165161132812</v>
+        <v>2.335497856140137</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>2.37</v>
       </c>
       <c r="C108" t="n">
-        <v>2.342241764068604</v>
+        <v>2.323347806930542</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>2.349</v>
       </c>
       <c r="C109" t="n">
-        <v>2.314512014389038</v>
+        <v>2.289201259613037</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>2.316</v>
       </c>
       <c r="C110" t="n">
-        <v>2.292969465255737</v>
+        <v>2.282838821411133</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>2.283</v>
       </c>
       <c r="C111" t="n">
-        <v>2.272201061248779</v>
+        <v>2.26887845993042</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>2.245</v>
       </c>
       <c r="C112" t="n">
-        <v>2.244332790374756</v>
+        <v>2.256854057312012</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>2.221</v>
       </c>
       <c r="C113" t="n">
-        <v>2.231318235397339</v>
+        <v>2.238211154937744</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>2.207</v>
       </c>
       <c r="C114" t="n">
-        <v>2.211491823196411</v>
+        <v>2.226167440414429</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>2.212</v>
       </c>
       <c r="C115" t="n">
-        <v>2.215566635131836</v>
+        <v>2.232309818267822</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>2.216</v>
       </c>
       <c r="C116" t="n">
-        <v>2.206154823303223</v>
+        <v>2.230460166931152</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>2.225</v>
       </c>
       <c r="C117" t="n">
-        <v>2.210204362869263</v>
+        <v>2.233278274536133</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>2.227</v>
       </c>
       <c r="C118" t="n">
-        <v>2.223912715911865</v>
+        <v>2.225869655609131</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>2.232</v>
       </c>
       <c r="C119" t="n">
-        <v>2.235303163528442</v>
+        <v>2.240164995193481</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2.239</v>
       </c>
       <c r="C120" t="n">
-        <v>2.240759134292603</v>
+        <v>2.231091499328613</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>2.252</v>
       </c>
       <c r="C121" t="n">
-        <v>2.265523195266724</v>
+        <v>2.223023414611816</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>2.269</v>
       </c>
       <c r="C122" t="n">
-        <v>2.279348850250244</v>
+        <v>2.234707117080688</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>2.284</v>
       </c>
       <c r="C123" t="n">
-        <v>2.290812730789185</v>
+        <v>2.227871894836426</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>2.295</v>
       </c>
       <c r="C124" t="n">
-        <v>2.310168504714966</v>
+        <v>2.229351997375488</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>2.3</v>
       </c>
       <c r="C125" t="n">
-        <v>2.311468839645386</v>
+        <v>2.240127325057983</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>2.296</v>
       </c>
       <c r="C126" t="n">
-        <v>2.304445266723633</v>
+        <v>2.241655826568604</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>2.286</v>
       </c>
       <c r="C127" t="n">
-        <v>2.28567361831665</v>
+        <v>2.242432355880737</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>2.276</v>
       </c>
       <c r="C128" t="n">
-        <v>2.274460315704346</v>
+        <v>2.25475001335144</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>2.265</v>
       </c>
       <c r="C129" t="n">
-        <v>2.268553733825684</v>
+        <v>2.25409984588623</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>2.256</v>
       </c>
       <c r="C130" t="n">
-        <v>2.262486219406128</v>
+        <v>2.265483140945435</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>2.249</v>
       </c>
       <c r="C131" t="n">
-        <v>2.252500295639038</v>
+        <v>2.26650595664978</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>2.24</v>
       </c>
       <c r="C132" t="n">
-        <v>2.255249738693237</v>
+        <v>2.261231422424316</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>2.243</v>
       </c>
       <c r="C133" t="n">
-        <v>2.249675273895264</v>
+        <v>2.251885890960693</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>2.245</v>
       </c>
       <c r="C134" t="n">
-        <v>2.254886865615845</v>
+        <v>2.241592884063721</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>2.25</v>
       </c>
       <c r="C135" t="n">
-        <v>2.261757850646973</v>
+        <v>2.238780736923218</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>2.254</v>
       </c>
       <c r="C136" t="n">
-        <v>2.26292610168457</v>
+        <v>2.226794719696045</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>2.249</v>
       </c>
       <c r="C137" t="n">
-        <v>2.258220672607422</v>
+        <v>2.226488828659058</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>2.241</v>
       </c>
       <c r="C138" t="n">
-        <v>2.2550048828125</v>
+        <v>2.228065967559814</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>2.235</v>
       </c>
       <c r="C139" t="n">
-        <v>2.253193140029907</v>
+        <v>2.226671457290649</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>2.231</v>
       </c>
       <c r="C140" t="n">
-        <v>2.251675128936768</v>
+        <v>2.230341911315918</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>2.228</v>
       </c>
       <c r="C141" t="n">
-        <v>2.249591588973999</v>
+        <v>2.224017143249512</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>2.226</v>
       </c>
       <c r="C142" t="n">
-        <v>2.24128794670105</v>
+        <v>2.227241039276123</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>2.227</v>
       </c>
       <c r="C143" t="n">
-        <v>2.235038757324219</v>
+        <v>2.220336198806763</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>2.236</v>
       </c>
       <c r="C144" t="n">
-        <v>2.249361038208008</v>
+        <v>2.220729351043701</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>2.252</v>
       </c>
       <c r="C145" t="n">
-        <v>2.259829521179199</v>
+        <v>2.222795248031616</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>2.266</v>
       </c>
       <c r="C146" t="n">
-        <v>2.271867513656616</v>
+        <v>2.223979234695435</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>2.28</v>
       </c>
       <c r="C147" t="n">
-        <v>2.277391910552979</v>
+        <v>2.217596769332886</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>2.287</v>
       </c>
       <c r="C148" t="n">
-        <v>2.292540788650513</v>
+        <v>2.232951641082764</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>2.294</v>
       </c>
       <c r="C149" t="n">
-        <v>2.286568641662598</v>
+        <v>2.25095796585083</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>2.304</v>
       </c>
       <c r="C150" t="n">
-        <v>2.277313232421875</v>
+        <v>2.263142347335815</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>2.306</v>
       </c>
       <c r="C151" t="n">
-        <v>2.275103807449341</v>
+        <v>2.284831047058105</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>2.303</v>
       </c>
       <c r="C152" t="n">
-        <v>2.273431301116943</v>
+        <v>2.305954933166504</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>2.296</v>
       </c>
       <c r="C153" t="n">
-        <v>2.268489360809326</v>
+        <v>2.316592454910278</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>2.286</v>
       </c>
       <c r="C154" t="n">
-        <v>2.277542591094971</v>
+        <v>2.338200569152832</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>2.281</v>
       </c>
       <c r="C155" t="n">
-        <v>2.272902250289917</v>
+        <v>2.340578079223633</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>2.279</v>
       </c>
       <c r="C156" t="n">
-        <v>2.287064075469971</v>
+        <v>2.329718112945557</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>2.286</v>
       </c>
       <c r="C157" t="n">
-        <v>2.300381898880005</v>
+        <v>2.338513374328613</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>2.308</v>
       </c>
       <c r="C158" t="n">
-        <v>2.31786847114563</v>
+        <v>2.336560249328613</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>2.332</v>
       </c>
       <c r="C159" t="n">
-        <v>2.337309837341309</v>
+        <v>2.319771766662598</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>2.359</v>
       </c>
       <c r="C160" t="n">
-        <v>2.352218866348267</v>
+        <v>2.306123018264771</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>2.369</v>
       </c>
       <c r="C161" t="n">
-        <v>2.366074800491333</v>
+        <v>2.279497861862183</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>2.367</v>
       </c>
       <c r="C162" t="n">
-        <v>2.362353563308716</v>
+        <v>2.27302074432373</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>2.342</v>
       </c>
       <c r="C163" t="n">
-        <v>2.353002548217773</v>
+        <v>2.243185997009277</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>2.301</v>
       </c>
       <c r="C164" t="n">
-        <v>2.328755617141724</v>
+        <v>2.225313663482666</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>2.247</v>
       </c>
       <c r="C165" t="n">
-        <v>2.283644914627075</v>
+        <v>2.200718402862549</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>2.191</v>
       </c>
       <c r="C166" t="n">
-        <v>2.229045152664185</v>
+        <v>2.180632829666138</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>2.139</v>
       </c>
       <c r="C167" t="n">
-        <v>2.1711106300354</v>
+        <v>2.15148663520813</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>2.099</v>
       </c>
       <c r="C168" t="n">
-        <v>2.129205465316772</v>
+        <v>2.138617038726807</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>2.076</v>
       </c>
       <c r="C169" t="n">
-        <v>2.09567666053772</v>
+        <v>2.129910707473755</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>2.069</v>
       </c>
       <c r="C170" t="n">
-        <v>2.080578804016113</v>
+        <v>2.110138654708862</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>2.073</v>
       </c>
       <c r="C171" t="n">
-        <v>2.077821016311646</v>
+        <v>2.116258382797241</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>2.08</v>
       </c>
       <c r="C172" t="n">
-        <v>2.098096370697021</v>
+        <v>2.119036912918091</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>2.094</v>
       </c>
       <c r="C173" t="n">
-        <v>2.121027946472168</v>
+        <v>2.108509302139282</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>2.104</v>
       </c>
       <c r="C174" t="n">
-        <v>2.152852058410645</v>
+        <v>2.107747316360474</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>2.118</v>
       </c>
       <c r="C175" t="n">
-        <v>2.170268058776855</v>
+        <v>2.105408906936646</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>2.134</v>
       </c>
       <c r="C176" t="n">
-        <v>2.181347131729126</v>
+        <v>2.113662958145142</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>2.149</v>
       </c>
       <c r="C177" t="n">
-        <v>2.181518793106079</v>
+        <v>2.118410587310791</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>2.164</v>
       </c>
       <c r="C178" t="n">
-        <v>2.170597553253174</v>
+        <v>2.119096755981445</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>2.175</v>
       </c>
       <c r="C179" t="n">
-        <v>2.171593427658081</v>
+        <v>2.124418497085571</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>2.174</v>
       </c>
       <c r="C180" t="n">
-        <v>2.177520751953125</v>
+        <v>2.13746190071106</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>2.172</v>
       </c>
       <c r="C181" t="n">
-        <v>2.195671081542969</v>
+        <v>2.147930145263672</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>2.175</v>
       </c>
       <c r="C182" t="n">
-        <v>2.210609674453735</v>
+        <v>2.171467542648315</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>2.184</v>
       </c>
       <c r="C183" t="n">
-        <v>2.221862316131592</v>
+        <v>2.193161725997925</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>2.197</v>
       </c>
       <c r="C184" t="n">
-        <v>2.221742153167725</v>
+        <v>2.19387674331665</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>2.199</v>
       </c>
       <c r="C185" t="n">
-        <v>2.217429161071777</v>
+        <v>2.192535400390625</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>2.196</v>
       </c>
       <c r="C186" t="n">
-        <v>2.204334735870361</v>
+        <v>2.201046466827393</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>2.189</v>
       </c>
       <c r="C187" t="n">
-        <v>2.203372478485107</v>
+        <v>2.204828500747681</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>2.186</v>
       </c>
       <c r="C188" t="n">
-        <v>2.190658807754517</v>
+        <v>2.2145094871521</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>2.185</v>
       </c>
       <c r="C189" t="n">
-        <v>2.189499378204346</v>
+        <v>2.224926710128784</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>2.181</v>
       </c>
       <c r="C190" t="n">
-        <v>2.185256958007812</v>
+        <v>2.224930047988892</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>2.183</v>
       </c>
       <c r="C191" t="n">
-        <v>2.190909624099731</v>
+        <v>2.243777275085449</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>2.189</v>
       </c>
       <c r="C192" t="n">
-        <v>2.194330453872681</v>
+        <v>2.241848707199097</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>2.209</v>
       </c>
       <c r="C193" t="n">
-        <v>2.210367679595947</v>
+        <v>2.244264125823975</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>2.234</v>
       </c>
       <c r="C194" t="n">
-        <v>2.239548921585083</v>
+        <v>2.250045776367188</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>2.26</v>
       </c>
       <c r="C195" t="n">
-        <v>2.266942024230957</v>
+        <v>2.250234842300415</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>2.281</v>
       </c>
       <c r="C196" t="n">
-        <v>2.295555830001831</v>
+        <v>2.252792358398438</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>2.306</v>
       </c>
       <c r="C197" t="n">
-        <v>2.308759212493896</v>
+        <v>2.252640724182129</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>2.332</v>
       </c>
       <c r="C198" t="n">
-        <v>2.325574159622192</v>
+        <v>2.263668537139893</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>2.345</v>
       </c>
       <c r="C199" t="n">
-        <v>2.327578067779541</v>
+        <v>2.275644063949585</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>2.344</v>
       </c>
       <c r="C200" t="n">
-        <v>2.317005395889282</v>
+        <v>2.293202877044678</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>2.321</v>
       </c>
       <c r="C201" t="n">
-        <v>2.304031372070312</v>
+        <v>2.284447908401489</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>2.281</v>
       </c>
       <c r="C202" t="n">
-        <v>2.278499126434326</v>
+        <v>2.300124645233154</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>2.245</v>
       </c>
       <c r="C203" t="n">
-        <v>2.246628522872925</v>
+        <v>2.297428131103516</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>2.218</v>
       </c>
       <c r="C204" t="n">
-        <v>2.223468780517578</v>
+        <v>2.293294668197632</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>2.206</v>
       </c>
       <c r="C205" t="n">
-        <v>2.208157062530518</v>
+        <v>2.285187721252441</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>2.213</v>
       </c>
       <c r="C206" t="n">
-        <v>2.216447591781616</v>
+        <v>2.298939943313599</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>2.225</v>
       </c>
       <c r="C207" t="n">
-        <v>2.224165201187134</v>
+        <v>2.282325506210327</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>2.245</v>
       </c>
       <c r="C208" t="n">
-        <v>2.236523628234863</v>
+        <v>2.278524160385132</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>2.261</v>
       </c>
       <c r="C209" t="n">
-        <v>2.261465549468994</v>
+        <v>2.276519775390625</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>2.267</v>
       </c>
       <c r="C210" t="n">
-        <v>2.26982593536377</v>
+        <v>2.269675493240356</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>2.28</v>
       </c>
       <c r="C211" t="n">
-        <v>2.284665584564209</v>
+        <v>2.268114328384399</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>2.287</v>
       </c>
       <c r="C212" t="n">
-        <v>2.285215854644775</v>
+        <v>2.274656534194946</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>2.296</v>
       </c>
       <c r="C213" t="n">
-        <v>2.291815280914307</v>
+        <v>2.26065468788147</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>2.3</v>
       </c>
       <c r="C214" t="n">
-        <v>2.284258365631104</v>
+        <v>2.251983404159546</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>2.298</v>
       </c>
       <c r="C215" t="n">
-        <v>2.284529685974121</v>
+        <v>2.240865230560303</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>2.283</v>
       </c>
       <c r="C216" t="n">
-        <v>2.26269006729126</v>
+        <v>2.237179517745972</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>2.262</v>
       </c>
       <c r="C217" t="n">
-        <v>2.250503301620483</v>
+        <v>2.22639799118042</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>2.239</v>
       </c>
       <c r="C218" t="n">
-        <v>2.223682403564453</v>
+        <v>2.209075689315796</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>2.21</v>
       </c>
       <c r="C219" t="n">
-        <v>2.208867788314819</v>
+        <v>2.202028751373291</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>2.192</v>
       </c>
       <c r="C220" t="n">
-        <v>2.198960304260254</v>
+        <v>2.189320802688599</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>2.183</v>
       </c>
       <c r="C221" t="n">
-        <v>2.198955535888672</v>
+        <v>2.162411689758301</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>2.179</v>
       </c>
       <c r="C222" t="n">
-        <v>2.194534778594971</v>
+        <v>2.160552501678467</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>2.184</v>
       </c>
       <c r="C223" t="n">
-        <v>2.19997501373291</v>
+        <v>2.157725811004639</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>2.187</v>
       </c>
       <c r="C224" t="n">
-        <v>2.198297262191772</v>
+        <v>2.155943393707275</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>2.196</v>
       </c>
       <c r="C225" t="n">
-        <v>2.194366693496704</v>
+        <v>2.169180870056152</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>2.195</v>
       </c>
       <c r="C226" t="n">
-        <v>2.190185785293579</v>
+        <v>2.172939777374268</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>2.188</v>
       </c>
       <c r="C227" t="n">
-        <v>2.168255805969238</v>
+        <v>2.172162771224976</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>2.169</v>
       </c>
       <c r="C228" t="n">
-        <v>2.155145883560181</v>
+        <v>2.177586793899536</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>2.157</v>
       </c>
       <c r="C229" t="n">
-        <v>2.156607389450073</v>
+        <v>2.190664052963257</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>2.148</v>
       </c>
       <c r="C230" t="n">
-        <v>2.170019388198853</v>
+        <v>2.184979438781738</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>2.157</v>
       </c>
       <c r="C231" t="n">
-        <v>2.186728954315186</v>
+        <v>2.201943397521973</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>2.182</v>
       </c>
       <c r="C232" t="n">
-        <v>2.201117753982544</v>
+        <v>2.21069860458374</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>2.216</v>
       </c>
       <c r="C233" t="n">
-        <v>2.216171264648438</v>
+        <v>2.204633712768555</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>2.249</v>
       </c>
       <c r="C234" t="n">
-        <v>2.224725723266602</v>
+        <v>2.205463409423828</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>2.271</v>
       </c>
       <c r="C235" t="n">
-        <v>2.230807065963745</v>
+        <v>2.206030607223511</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>2.271</v>
       </c>
       <c r="C236" t="n">
-        <v>2.23772120475769</v>
+        <v>2.195864915847778</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>2.269</v>
       </c>
       <c r="C237" t="n">
-        <v>2.248944997787476</v>
+        <v>2.21208643913269</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>2.257</v>
       </c>
       <c r="C238" t="n">
-        <v>2.254087209701538</v>
+        <v>2.224803686141968</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>2.254</v>
       </c>
       <c r="C239" t="n">
-        <v>2.262162208557129</v>
+        <v>2.237942218780518</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>2.265</v>
       </c>
       <c r="C240" t="n">
-        <v>2.273993015289307</v>
+        <v>2.24353551864624</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>2.28</v>
       </c>
       <c r="C241" t="n">
-        <v>2.289806842803955</v>
+        <v>2.245951175689697</v>
       </c>
     </row>
     <row r="242">
@@ -3098,7 +3098,7 @@
         <v>2.303</v>
       </c>
       <c r="C242" t="n">
-        <v>2.303235292434692</v>
+        <v>2.266061544418335</v>
       </c>
     </row>
     <row r="243">
@@ -3109,7 +3109,7 @@
         <v>2.321</v>
       </c>
       <c r="C243" t="n">
-        <v>2.309167623519897</v>
+        <v>2.267534494400024</v>
       </c>
     </row>
     <row r="244">
@@ -3120,7 +3120,7 @@
         <v>2.338</v>
       </c>
       <c r="C244" t="n">
-        <v>2.323160409927368</v>
+        <v>2.260804414749146</v>
       </c>
     </row>
     <row r="245">
@@ -3131,7 +3131,7 @@
         <v>2.35</v>
       </c>
       <c r="C245" t="n">
-        <v>2.333512306213379</v>
+        <v>2.276651859283447</v>
       </c>
     </row>
     <row r="246">
@@ -3142,7 +3142,7 @@
         <v>2.356</v>
       </c>
       <c r="C246" t="n">
-        <v>2.331621885299683</v>
+        <v>2.280070304870605</v>
       </c>
     </row>
     <row r="247">
@@ -3153,7 +3153,7 @@
         <v>2.358</v>
       </c>
       <c r="C247" t="n">
-        <v>2.32507061958313</v>
+        <v>2.288561582565308</v>
       </c>
     </row>
     <row r="248">
@@ -3164,7 +3164,7 @@
         <v>2.347</v>
       </c>
       <c r="C248" t="n">
-        <v>2.31574821472168</v>
+        <v>2.294535636901855</v>
       </c>
     </row>
     <row r="249">
@@ -3175,7 +3175,7 @@
         <v>2.326</v>
       </c>
       <c r="C249" t="n">
-        <v>2.310275793075562</v>
+        <v>2.281915187835693</v>
       </c>
     </row>
     <row r="250">
@@ -3186,7 +3186,7 @@
         <v>2.293</v>
       </c>
       <c r="C250" t="n">
-        <v>2.296838283538818</v>
+        <v>2.276190280914307</v>
       </c>
     </row>
     <row r="251">
@@ -3197,7 +3197,7 @@
         <v>2.263</v>
       </c>
       <c r="C251" t="n">
-        <v>2.282452821731567</v>
+        <v>2.285414218902588</v>
       </c>
     </row>
     <row r="252">
@@ -3208,7 +3208,7 @@
         <v>2.237</v>
       </c>
       <c r="C252" t="n">
-        <v>2.261075973510742</v>
+        <v>2.282100677490234</v>
       </c>
     </row>
     <row r="253">
@@ -3219,7 +3219,7 @@
         <v>2.222</v>
       </c>
       <c r="C253" t="n">
-        <v>2.244760036468506</v>
+        <v>2.277041673660278</v>
       </c>
     </row>
     <row r="254">
@@ -3230,7 +3230,7 @@
         <v>2.206</v>
       </c>
       <c r="C254" t="n">
-        <v>2.230062246322632</v>
+        <v>2.273133277893066</v>
       </c>
     </row>
     <row r="255">
@@ -3241,7 +3241,7 @@
         <v>2.192</v>
       </c>
       <c r="C255" t="n">
-        <v>2.221809864044189</v>
+        <v>2.27064061164856</v>
       </c>
     </row>
     <row r="256">
@@ -3252,7 +3252,7 @@
         <v>2.182</v>
       </c>
       <c r="C256" t="n">
-        <v>2.206402778625488</v>
+        <v>2.269147872924805</v>
       </c>
     </row>
     <row r="257">
@@ -3263,7 +3263,7 @@
         <v>2.178</v>
       </c>
       <c r="C257" t="n">
-        <v>2.207282066345215</v>
+        <v>2.255558013916016</v>
       </c>
     </row>
     <row r="258">
@@ -3274,7 +3274,7 @@
         <v>2.18</v>
       </c>
       <c r="C258" t="n">
-        <v>2.197102069854736</v>
+        <v>2.256525278091431</v>
       </c>
     </row>
     <row r="259">
@@ -3285,7 +3285,7 @@
         <v>2.183</v>
       </c>
       <c r="C259" t="n">
-        <v>2.194687128067017</v>
+        <v>2.226129293441772</v>
       </c>
     </row>
     <row r="260">
@@ -3296,7 +3296,7 @@
         <v>2.179</v>
       </c>
       <c r="C260" t="n">
-        <v>2.181120634078979</v>
+        <v>2.215375900268555</v>
       </c>
     </row>
     <row r="261">
@@ -3307,7 +3307,7 @@
         <v>2.171</v>
       </c>
       <c r="C261" t="n">
-        <v>2.172250986099243</v>
+        <v>2.193608045578003</v>
       </c>
     </row>
     <row r="262">
@@ -3318,7 +3318,7 @@
         <v>2.153</v>
       </c>
       <c r="C262" t="n">
-        <v>2.161018371582031</v>
+        <v>2.193837881088257</v>
       </c>
     </row>
     <row r="263">
@@ -3329,7 +3329,7 @@
         <v>2.139</v>
       </c>
       <c r="C263" t="n">
-        <v>2.14403247833252</v>
+        <v>2.183370113372803</v>
       </c>
     </row>
     <row r="264">
@@ -3340,7 +3340,7 @@
         <v>2.131</v>
       </c>
       <c r="C264" t="n">
-        <v>2.133042335510254</v>
+        <v>2.181111574172974</v>
       </c>
     </row>
     <row r="265">
@@ -3351,7 +3351,7 @@
         <v>2.126</v>
       </c>
       <c r="C265" t="n">
-        <v>2.12983775138855</v>
+        <v>2.178632020950317</v>
       </c>
     </row>
     <row r="266">
@@ -3362,7 +3362,7 @@
         <v>2.133</v>
       </c>
       <c r="C266" t="n">
-        <v>2.126741647720337</v>
+        <v>2.176390171051025</v>
       </c>
     </row>
     <row r="267">
@@ -3373,7 +3373,7 @@
         <v>2.146</v>
       </c>
       <c r="C267" t="n">
-        <v>2.14453911781311</v>
+        <v>2.159330129623413</v>
       </c>
     </row>
     <row r="268">
@@ -3384,7 +3384,7 @@
         <v>2.167</v>
       </c>
       <c r="C268" t="n">
-        <v>2.15446138381958</v>
+        <v>2.166046380996704</v>
       </c>
     </row>
     <row r="269">
@@ -3395,7 +3395,7 @@
         <v>2.183</v>
       </c>
       <c r="C269" t="n">
-        <v>2.164947032928467</v>
+        <v>2.148027896881104</v>
       </c>
     </row>
     <row r="270">
@@ -3406,7 +3406,7 @@
         <v>2.193</v>
       </c>
       <c r="C270" t="n">
-        <v>2.18184232711792</v>
+        <v>2.152901172637939</v>
       </c>
     </row>
     <row r="271">
@@ -3417,7 +3417,7 @@
         <v>2.196</v>
       </c>
       <c r="C271" t="n">
-        <v>2.1972975730896</v>
+        <v>2.17533278465271</v>
       </c>
     </row>
     <row r="272">
@@ -3428,7 +3428,7 @@
         <v>2.204</v>
       </c>
       <c r="C272" t="n">
-        <v>2.203195571899414</v>
+        <v>2.164005756378174</v>
       </c>
     </row>
     <row r="273">
@@ -3439,7 +3439,7 @@
         <v>2.208</v>
       </c>
       <c r="C273" t="n">
-        <v>2.205243825912476</v>
+        <v>2.176077365875244</v>
       </c>
     </row>
     <row r="274">
@@ -3450,7 +3450,7 @@
         <v>2.215</v>
       </c>
       <c r="C274" t="n">
-        <v>2.209463119506836</v>
+        <v>2.18733811378479</v>
       </c>
     </row>
     <row r="275">
@@ -3461,7 +3461,7 @@
         <v>2.225</v>
       </c>
       <c r="C275" t="n">
-        <v>2.235590934753418</v>
+        <v>2.189830541610718</v>
       </c>
     </row>
     <row r="276">
@@ -3472,7 +3472,7 @@
         <v>2.237</v>
       </c>
       <c r="C276" t="n">
-        <v>2.245641946792603</v>
+        <v>2.204296112060547</v>
       </c>
     </row>
     <row r="277">
@@ -3483,7 +3483,7 @@
         <v>2.245</v>
       </c>
       <c r="C277" t="n">
-        <v>2.25591516494751</v>
+        <v>2.212244510650635</v>
       </c>
     </row>
     <row r="278">
@@ -3494,7 +3494,7 @@
         <v>2.26</v>
       </c>
       <c r="C278" t="n">
-        <v>2.260918617248535</v>
+        <v>2.226744174957275</v>
       </c>
     </row>
     <row r="279">
@@ -3505,7 +3505,7 @@
         <v>2.263</v>
       </c>
       <c r="C279" t="n">
-        <v>2.270906925201416</v>
+        <v>2.225748538970947</v>
       </c>
     </row>
     <row r="280">
@@ -3516,7 +3516,7 @@
         <v>2.267</v>
       </c>
       <c r="C280" t="n">
-        <v>2.280108213424683</v>
+        <v>2.247087240219116</v>
       </c>
     </row>
     <row r="281">
@@ -3527,7 +3527,7 @@
         <v>2.272</v>
       </c>
       <c r="C281" t="n">
-        <v>2.296359300613403</v>
+        <v>2.260745525360107</v>
       </c>
     </row>
     <row r="282">
@@ -3538,7 +3538,7 @@
         <v>2.278</v>
       </c>
       <c r="C282" t="n">
-        <v>2.302810907363892</v>
+        <v>2.287002086639404</v>
       </c>
     </row>
     <row r="283">
@@ -3549,7 +3549,7 @@
         <v>2.296</v>
       </c>
       <c r="C283" t="n">
-        <v>2.306686401367188</v>
+        <v>2.270962238311768</v>
       </c>
     </row>
     <row r="284">
@@ -3560,7 +3560,7 @@
         <v>2.314</v>
       </c>
       <c r="C284" t="n">
-        <v>2.312391519546509</v>
+        <v>2.284241676330566</v>
       </c>
     </row>
     <row r="285">
@@ -3571,7 +3571,7 @@
         <v>2.336</v>
       </c>
       <c r="C285" t="n">
-        <v>2.302120685577393</v>
+        <v>2.277028799057007</v>
       </c>
     </row>
     <row r="286">
@@ -3582,7 +3582,7 @@
         <v>2.35</v>
       </c>
       <c r="C286" t="n">
-        <v>2.299921035766602</v>
+        <v>2.278105735778809</v>
       </c>
     </row>
     <row r="287">
@@ -3593,7 +3593,7 @@
         <v>2.35</v>
       </c>
       <c r="C287" t="n">
-        <v>2.301390171051025</v>
+        <v>2.279525756835938</v>
       </c>
     </row>
     <row r="288">
@@ -3604,7 +3604,7 @@
         <v>2.337</v>
       </c>
       <c r="C288" t="n">
-        <v>2.295029163360596</v>
+        <v>2.280259609222412</v>
       </c>
     </row>
     <row r="289">
@@ -3615,7 +3615,7 @@
         <v>2.317</v>
       </c>
       <c r="C289" t="n">
-        <v>2.30126690864563</v>
+        <v>2.270960092544556</v>
       </c>
     </row>
     <row r="290">
@@ -3626,7 +3626,7 @@
         <v>2.301</v>
       </c>
       <c r="C290" t="n">
-        <v>2.306335926055908</v>
+        <v>2.268327474594116</v>
       </c>
     </row>
     <row r="291">
@@ -3637,7 +3637,7 @@
         <v>2.289</v>
       </c>
       <c r="C291" t="n">
-        <v>2.300308465957642</v>
+        <v>2.260667085647583</v>
       </c>
     </row>
     <row r="292">
@@ -3648,7 +3648,7 @@
         <v>2.281</v>
       </c>
       <c r="C292" t="n">
-        <v>2.289437770843506</v>
+        <v>2.251862764358521</v>
       </c>
     </row>
     <row r="293">
@@ -3659,7 +3659,7 @@
         <v>2.279</v>
       </c>
       <c r="C293" t="n">
-        <v>2.272474765777588</v>
+        <v>2.251897573471069</v>
       </c>
     </row>
     <row r="294">
@@ -3670,7 +3670,7 @@
         <v>2.275</v>
       </c>
       <c r="C294" t="n">
-        <v>2.258014440536499</v>
+        <v>2.233060121536255</v>
       </c>
     </row>
     <row r="295">
@@ -3681,7 +3681,7 @@
         <v>2.27</v>
       </c>
       <c r="C295" t="n">
-        <v>2.242790460586548</v>
+        <v>2.231670379638672</v>
       </c>
     </row>
     <row r="296">
@@ -3692,7 +3692,7 @@
         <v>2.263</v>
       </c>
       <c r="C296" t="n">
-        <v>2.227705955505371</v>
+        <v>2.229238033294678</v>
       </c>
     </row>
     <row r="297">
@@ -3703,7 +3703,7 @@
         <v>2.255</v>
       </c>
       <c r="C297" t="n">
-        <v>2.222912549972534</v>
+        <v>2.24182653427124</v>
       </c>
     </row>
     <row r="298">
@@ -3714,7 +3714,7 @@
         <v>2.25</v>
       </c>
       <c r="C298" t="n">
-        <v>2.218716144561768</v>
+        <v>2.228559970855713</v>
       </c>
     </row>
     <row r="299">
@@ -3725,7 +3725,7 @@
         <v>2.244</v>
       </c>
       <c r="C299" t="n">
-        <v>2.215241432189941</v>
+        <v>2.218359470367432</v>
       </c>
     </row>
     <row r="300">
@@ -3736,7 +3736,7 @@
         <v>2.248</v>
       </c>
       <c r="C300" t="n">
-        <v>2.203845024108887</v>
+        <v>2.220348358154297</v>
       </c>
     </row>
     <row r="301">
@@ -3747,7 +3747,7 @@
         <v>2.255</v>
       </c>
       <c r="C301" t="n">
-        <v>2.197789669036865</v>
+        <v>2.222182512283325</v>
       </c>
     </row>
   </sheetData>
